--- a/data/trans_dic/P25_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece hipertensión/presión arterial alta</t>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>18,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 24,35</t>
+          <t>11,13; 23,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,93</t>
+          <t>10,32; 21,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,3; 25,13</t>
+          <t>13,02; 25,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 23,55</t>
+          <t>11,21; 23,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,37; 19,03</t>
+          <t>14,82; 26,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,0; 38,19</t>
+          <t>11,09; 21,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,73</t>
+          <t>13,14; 24,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 18,76</t>
+          <t>16,23; 29,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 30,4</t>
+          <t>14,82; 23,29</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,53; 20,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 23,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 24,41</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 21,55</t>
+          <t>13,19; 26,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 17,79</t>
+          <t>9,46; 21,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 19,06</t>
+          <t>12,01; 24,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 20,99</t>
+          <t>13,4; 27,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 18,28</t>
+          <t>6,81; 16,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 22,04</t>
+          <t>5,65; 14,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,75; 19,3</t>
+          <t>7,61; 18,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 16,27</t>
+          <t>9,32; 22,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 19,01</t>
+          <t>11,32; 19,19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,42; 16,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 18,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,96; 22,17</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,33%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 38,89</t>
+          <t>6,93; 40,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 34,28</t>
+          <t>4,99; 35,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 38,43</t>
+          <t>5,07; 35,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 32,07</t>
+          <t>5,32; 38,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 32,66</t>
+          <t>6,5; 33,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 32,6</t>
+          <t>4,74; 29,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 30,72</t>
+          <t>6,48; 32,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 28,79</t>
+          <t>4,27; 35,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 30,55</t>
+          <t>10,82; 31,45</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,18; 26,67</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 29,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 31,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 22,12</t>
+          <t>14,61; 23,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,28</t>
+          <t>11,6; 19,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,52</t>
+          <t>14,55; 23,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,83</t>
+          <t>14,05; 23,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,6</t>
+          <t>12,57; 20,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 28,04</t>
+          <t>10,29; 17,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,58</t>
+          <t>12,02; 19,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 17,56</t>
+          <t>14,62; 23,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 23,13</t>
+          <t>14,74; 20,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 16,99</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 19,85</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 21,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>72929</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>56694</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72719</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>88427</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>101198</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67924</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>74809</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>122752</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>174127</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>124619</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>147528</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>211179</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>47873; 101290</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37241; 78869</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49590; 98976</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>57529; 121118</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>74571; 133685</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>46526; 91937</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>53359; 98611</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>91183; 165770</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>138308; 217382</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97760; 156088</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>117424; 184854</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>165245; 262335</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>69093</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46857</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>57172</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>80637</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47545</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31660</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39131</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65305</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116638</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78517</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>96303</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>145942</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>47420; 94690</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30110; 68711</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38758; 80243</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>55254; 113585</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28948; 70138</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19110; 50489</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25379; 60601</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40176; 98120</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>88807; 150612</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>55316; 105240</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>72884; 124007</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>109342; 186985</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22636</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14590</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15646</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23213</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16787</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10771</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13485</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18445</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39423</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25361</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29131</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41658</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7050; 40917</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3975; 28226</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4336; 30525</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6354; 46102</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6421; 33357</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3862; 23927</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5353; 26603</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4751; 39864</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21710; 63088</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13182; 42983</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15099; 49520</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20156; 72396</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>164658</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>118141</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>145537</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>192277</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>165530</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>110356</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>127425</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>206502</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>330188</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>228497</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>272962</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>398780</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>130246; 205089</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>87980; 148287</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114812; 182041</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>146752; 246348</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>129125; 210383</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>86395; 145803</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>98804; 161968</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>161404; 262562</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>282832; 389943</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>187652; 271528</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>232652; 319812</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>333369; 471635</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
